--- a/data/IN/outputs/house_consistency_matrix.xlsx
+++ b/data/IN/outputs/house_consistency_matrix.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="9750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/IN/outputs/house_consistency_matrix.xlsx
+++ b/data/IN/outputs/house_consistency_matrix.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/IN/outputs/house_consistency_matrix.xlsx
+++ b/data/IN/outputs/house_consistency_matrix.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -714,13 +714,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -742,10 +742,10 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -756,13 +756,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -770,13 +770,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -784,13 +784,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>0.83333333333333337</v>
+        <v>0.93333333333333335</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -798,10 +798,10 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -812,10 +812,10 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -826,13 +826,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -840,13 +840,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -854,13 +854,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -868,13 +868,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.92307692307692313</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -882,10 +882,10 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -910,13 +910,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -924,13 +924,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>0.8</v>
+        <v>0.95454545454545459</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -938,13 +938,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>0.8571428571428571</v>
+        <v>0.92307692307692313</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -952,13 +952,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.91304347826086951</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -966,10 +966,10 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -980,10 +980,10 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -994,13 +994,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>0.75</v>
+        <v>0.77272727272727271</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1008,13 +1008,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>0.8</v>
+        <v>0.84615384615384615</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1022,13 +1022,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D24">
-        <v>0.6</v>
+        <v>0.72727272727272729</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1036,10 +1036,10 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1050,10 +1050,10 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1064,10 +1064,10 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1078,13 +1078,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D28">
-        <v>0.66666666666666663</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1092,10 +1092,10 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1109,10 +1109,10 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1120,13 +1120,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0.91304347826086951</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1134,10 +1134,10 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1148,10 +1148,10 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1162,13 +1162,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1176,10 +1176,10 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1190,13 +1190,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D36">
-        <v>0.5</v>
+        <v>0.61538461538461542</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1204,10 +1204,10 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1218,13 +1218,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1246,10 +1246,10 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1260,10 +1260,10 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1288,13 +1288,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1302,10 +1302,10 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1316,13 +1316,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1341,10 +1341,10 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1355,13 +1355,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1369,13 +1369,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D49">
-        <v>0.66666666666666663</v>
+        <v>0.92307692307692313</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1383,10 +1383,10 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C50">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1397,10 +1397,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="D51">
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1422,13 +1425,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D53">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1436,13 +1439,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D54">
-        <v>0.66666666666666663</v>
+        <v>0.94117647058823528</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1450,13 +1453,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1464,13 +1467,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0.92307692307692313</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1478,10 +1481,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1489,13 +1495,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C58">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1503,10 +1509,10 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C59">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -1517,10 +1523,10 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -1545,10 +1551,10 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -1559,10 +1565,10 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -1573,13 +1579,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C64">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D64">
-        <v>0.8</v>
+        <v>0.95454545454545459</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1601,13 +1607,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D66">
-        <v>0.66666666666666663</v>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1615,10 +1621,10 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -1643,13 +1649,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1657,10 +1663,10 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -1671,13 +1677,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1685,13 +1691,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1699,13 +1705,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C73">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D73">
-        <v>0.6</v>
+        <v>0.78947368421052633</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1713,13 +1719,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1727,10 +1733,10 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C75">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -1741,10 +1747,10 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -1755,10 +1761,10 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -1783,13 +1789,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>0.89655172413793105</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1797,13 +1803,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D80">
-        <v>0.66666666666666663</v>
+        <v>0.90909090909090906</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1811,10 +1817,10 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -1839,10 +1845,10 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -1867,10 +1873,10 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -1881,13 +1887,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C86">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D86">
-        <v>0.88888888888888884</v>
+        <v>0.88461538461538458</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1895,10 +1901,10 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -1923,10 +1929,10 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C89">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -1979,13 +1985,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -1993,13 +1999,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>0.81481481481481477</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2007,10 +2013,10 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -2021,10 +2027,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="D96">
+        <v>0.8</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2032,13 +2041,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D97">
-        <v>0.5</v>
+        <v>0.90476190476190477</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2046,10 +2055,10 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C98">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2060,13 +2069,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2074,10 +2083,10 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C100">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -2088,13 +2097,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>0.95454545454545459</v>
       </c>
     </row>
   </sheetData>
